--- a/papers/SD tidyverse/Vensim/SimulationOutput.xlsx
+++ b/papers/SD tidyverse/Vensim/SimulationOutput.xlsx
@@ -213,10 +213,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -552,11 +553,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AS19" sqref="AS19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="44" max="47" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:47">
       <c r="A1" t="s">
@@ -688,16 +692,16 @@
       <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -831,16 +835,16 @@
       <c r="AQ2">
         <v>0.5</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AR2" s="3">
         <v>50000</v>
       </c>
-      <c r="AS2" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AU2" s="2">
+      <c r="AS2" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT2" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AU2" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -974,16 +978,16 @@
       <c r="AQ3">
         <v>0.65620000000000001</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AR3" s="3">
         <v>50000</v>
       </c>
-      <c r="AS3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AU3" s="2">
+      <c r="AS3" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT3" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AU3" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1117,16 +1121,16 @@
       <c r="AQ4">
         <v>0.86909999999999998</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR4" s="3">
         <v>50000</v>
       </c>
-      <c r="AS4" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT4" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AU4" s="2">
+      <c r="AS4" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT4" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AU4" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1260,16 +1264,16 @@
       <c r="AQ5">
         <v>1.161</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5" s="3">
         <v>50000</v>
       </c>
-      <c r="AS5" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AU5" s="2">
+      <c r="AS5" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AU5" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1403,16 +1407,16 @@
       <c r="AQ6">
         <v>1.5620000000000001</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6" s="3">
         <v>50000</v>
       </c>
-      <c r="AS6" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AU6" s="2">
+      <c r="AS6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AU6" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1546,16 +1550,16 @@
       <c r="AQ7">
         <v>2.1160000000000001</v>
       </c>
-      <c r="AR7" s="2">
+      <c r="AR7" s="3">
         <v>50000</v>
       </c>
-      <c r="AS7" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AU7" s="2">
+      <c r="AS7" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT7" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AU7" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1689,16 +1693,16 @@
       <c r="AQ8">
         <v>2.8849999999999998</v>
       </c>
-      <c r="AR8" s="2">
+      <c r="AR8" s="3">
         <v>50000</v>
       </c>
-      <c r="AS8" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT8" s="2">
+      <c r="AS8" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT8" s="3">
         <v>24990</v>
       </c>
-      <c r="AU8" s="2">
+      <c r="AU8" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1832,16 +1836,16 @@
       <c r="AQ9">
         <v>3.9540000000000002</v>
       </c>
-      <c r="AR9" s="2">
+      <c r="AR9" s="3">
         <v>50000</v>
       </c>
-      <c r="AS9" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT9" s="2">
+      <c r="AS9" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT9" s="3">
         <v>24990</v>
       </c>
-      <c r="AU9" s="2">
+      <c r="AU9" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -1975,16 +1979,16 @@
       <c r="AQ10">
         <v>5.4429999999999996</v>
       </c>
-      <c r="AR10" s="2">
+      <c r="AR10" s="3">
         <v>50000</v>
       </c>
-      <c r="AS10" s="2">
-        <v>25000</v>
-      </c>
-      <c r="AT10" s="2">
+      <c r="AS10" s="3">
+        <v>25000</v>
+      </c>
+      <c r="AT10" s="3">
         <v>24990</v>
       </c>
-      <c r="AU10" s="2">
+      <c r="AU10" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2118,16 +2122,16 @@
       <c r="AQ11">
         <v>7.5220000000000002</v>
       </c>
-      <c r="AR11" s="2">
+      <c r="AR11" s="3">
         <v>50000</v>
       </c>
-      <c r="AS11" s="2">
+      <c r="AS11" s="3">
         <v>24990</v>
       </c>
-      <c r="AT11" s="2">
+      <c r="AT11" s="3">
         <v>24980</v>
       </c>
-      <c r="AU11" s="2">
+      <c r="AU11" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2261,16 +2265,16 @@
       <c r="AQ12">
         <v>10.43</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AR12" s="3">
         <v>50000</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AS12" s="3">
         <v>24990</v>
       </c>
-      <c r="AT12" s="2">
+      <c r="AT12" s="3">
         <v>24980</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AU12" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2404,16 +2408,16 @@
       <c r="AQ13">
         <v>14.5</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AR13" s="3">
         <v>50000</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AS13" s="3">
         <v>24990</v>
       </c>
-      <c r="AT13" s="2">
+      <c r="AT13" s="3">
         <v>24970</v>
       </c>
-      <c r="AU13" s="2">
+      <c r="AU13" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2547,16 +2551,16 @@
       <c r="AQ14">
         <v>20.21</v>
       </c>
-      <c r="AR14" s="2">
+      <c r="AR14" s="3">
         <v>49990</v>
       </c>
-      <c r="AS14" s="2">
+      <c r="AS14" s="3">
         <v>24980</v>
       </c>
-      <c r="AT14" s="2">
+      <c r="AT14" s="3">
         <v>24950</v>
       </c>
-      <c r="AU14" s="2">
+      <c r="AU14" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2690,16 +2694,16 @@
       <c r="AQ15">
         <v>28.21</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AR15" s="3">
         <v>49990</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AS15" s="3">
         <v>24980</v>
       </c>
-      <c r="AT15" s="2">
+      <c r="AT15" s="3">
         <v>24930</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AU15" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2833,16 +2837,16 @@
       <c r="AQ16">
         <v>39.44</v>
       </c>
-      <c r="AR16" s="2">
+      <c r="AR16" s="3">
         <v>49980</v>
       </c>
-      <c r="AS16" s="2">
+      <c r="AS16" s="3">
         <v>24970</v>
       </c>
-      <c r="AT16" s="2">
+      <c r="AT16" s="3">
         <v>24910</v>
       </c>
-      <c r="AU16" s="2">
+      <c r="AU16" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -2976,16 +2980,16 @@
       <c r="AQ17">
         <v>55.2</v>
       </c>
-      <c r="AR17" s="2">
+      <c r="AR17" s="3">
         <v>49980</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AS17" s="3">
         <v>24950</v>
       </c>
-      <c r="AT17" s="2">
+      <c r="AT17" s="3">
         <v>24870</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AU17" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3119,16 +3123,16 @@
       <c r="AQ18">
         <v>77.31</v>
       </c>
-      <c r="AR18" s="2">
+      <c r="AR18" s="3">
         <v>49970</v>
       </c>
-      <c r="AS18" s="2">
+      <c r="AS18" s="3">
         <v>24940</v>
       </c>
-      <c r="AT18" s="2">
+      <c r="AT18" s="3">
         <v>24820</v>
       </c>
-      <c r="AU18" s="2">
+      <c r="AU18" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3262,16 +3266,16 @@
       <c r="AQ19">
         <v>108.3</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AR19" s="3">
         <v>49950</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AS19" s="3">
         <v>24910</v>
       </c>
-      <c r="AT19" s="2">
+      <c r="AT19" s="3">
         <v>24750</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AU19" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3405,16 +3409,16 @@
       <c r="AQ20">
         <v>151.69999999999999</v>
       </c>
-      <c r="AR20" s="2">
+      <c r="AR20" s="3">
         <v>49930</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AS20" s="3">
         <v>24870</v>
       </c>
-      <c r="AT20" s="2">
+      <c r="AT20" s="3">
         <v>24650</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AU20" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3548,16 +3552,16 @@
       <c r="AQ21">
         <v>212.4</v>
       </c>
-      <c r="AR21" s="2">
+      <c r="AR21" s="3">
         <v>49900</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AS21" s="3">
         <v>24820</v>
       </c>
-      <c r="AT21" s="2">
+      <c r="AT21" s="3">
         <v>24510</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AU21" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3691,16 +3695,16 @@
       <c r="AQ22">
         <v>297</v>
       </c>
-      <c r="AR22" s="2">
+      <c r="AR22" s="3">
         <v>49860</v>
       </c>
-      <c r="AS22" s="2">
+      <c r="AS22" s="3">
         <v>24750</v>
       </c>
-      <c r="AT22" s="2">
+      <c r="AT22" s="3">
         <v>24310</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AU22" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3834,16 +3838,16 @@
       <c r="AQ23">
         <v>414.5</v>
       </c>
-      <c r="AR23" s="2">
+      <c r="AR23" s="3">
         <v>49810</v>
       </c>
-      <c r="AS23" s="2">
+      <c r="AS23" s="3">
         <v>24650</v>
       </c>
-      <c r="AT23" s="2">
+      <c r="AT23" s="3">
         <v>24040</v>
       </c>
-      <c r="AU23" s="2">
+      <c r="AU23" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -3977,16 +3981,16 @@
       <c r="AQ24">
         <v>576.70000000000005</v>
       </c>
-      <c r="AR24" s="2">
+      <c r="AR24" s="3">
         <v>49730</v>
       </c>
-      <c r="AS24" s="2">
+      <c r="AS24" s="3">
         <v>24500</v>
       </c>
-      <c r="AT24" s="2">
+      <c r="AT24" s="3">
         <v>23660</v>
       </c>
-      <c r="AU24" s="2">
+      <c r="AU24" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4120,16 +4124,16 @@
       <c r="AQ25">
         <v>798.9</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AR25" s="3">
         <v>49610</v>
       </c>
-      <c r="AS25" s="2">
+      <c r="AS25" s="3">
         <v>24310</v>
       </c>
-      <c r="AT25" s="2">
+      <c r="AT25" s="3">
         <v>23150</v>
       </c>
-      <c r="AU25" s="2">
+      <c r="AU25" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4263,16 +4267,16 @@
       <c r="AQ26">
         <v>1100</v>
       </c>
-      <c r="AR26" s="2">
+      <c r="AR26" s="3">
         <v>49460</v>
       </c>
-      <c r="AS26" s="2">
+      <c r="AS26" s="3">
         <v>24040</v>
       </c>
-      <c r="AT26" s="2">
+      <c r="AT26" s="3">
         <v>22450</v>
       </c>
-      <c r="AU26" s="2">
+      <c r="AU26" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4406,16 +4410,16 @@
       <c r="AQ27">
         <v>1501</v>
       </c>
-      <c r="AR27" s="2">
+      <c r="AR27" s="3">
         <v>49240</v>
       </c>
-      <c r="AS27" s="2">
+      <c r="AS27" s="3">
         <v>23660</v>
       </c>
-      <c r="AT27" s="2">
+      <c r="AT27" s="3">
         <v>21510</v>
       </c>
-      <c r="AU27" s="2">
+      <c r="AU27" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4549,16 +4553,16 @@
       <c r="AQ28">
         <v>2025</v>
       </c>
-      <c r="AR28" s="2">
+      <c r="AR28" s="3">
         <v>48930</v>
       </c>
-      <c r="AS28" s="2">
+      <c r="AS28" s="3">
         <v>23160</v>
       </c>
-      <c r="AT28" s="2">
+      <c r="AT28" s="3">
         <v>20270</v>
       </c>
-      <c r="AU28" s="2">
+      <c r="AU28" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4692,16 +4696,16 @@
       <c r="AQ29">
         <v>2688</v>
       </c>
-      <c r="AR29" s="2">
+      <c r="AR29" s="3">
         <v>48510</v>
       </c>
-      <c r="AS29" s="2">
+      <c r="AS29" s="3">
         <v>22490</v>
       </c>
-      <c r="AT29" s="2">
+      <c r="AT29" s="3">
         <v>18690</v>
       </c>
-      <c r="AU29" s="2">
+      <c r="AU29" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4835,16 +4839,16 @@
       <c r="AQ30">
         <v>3495</v>
       </c>
-      <c r="AR30" s="2">
+      <c r="AR30" s="3">
         <v>47940</v>
       </c>
-      <c r="AS30" s="2">
+      <c r="AS30" s="3">
         <v>21620</v>
       </c>
-      <c r="AT30" s="2">
+      <c r="AT30" s="3">
         <v>16740</v>
       </c>
-      <c r="AU30" s="2">
+      <c r="AU30" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -4978,16 +4982,16 @@
       <c r="AQ31">
         <v>4424</v>
       </c>
-      <c r="AR31" s="2">
+      <c r="AR31" s="3">
         <v>47170</v>
       </c>
-      <c r="AS31" s="2">
+      <c r="AS31" s="3">
         <v>20520</v>
       </c>
-      <c r="AT31" s="2">
+      <c r="AT31" s="3">
         <v>14450</v>
       </c>
-      <c r="AU31" s="2">
+      <c r="AU31" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5121,16 +5125,16 @@
       <c r="AQ32">
         <v>5420</v>
       </c>
-      <c r="AR32" s="2">
+      <c r="AR32" s="3">
         <v>46140</v>
       </c>
-      <c r="AS32" s="2">
+      <c r="AS32" s="3">
         <v>19170</v>
       </c>
-      <c r="AT32" s="2">
+      <c r="AT32" s="3">
         <v>11900</v>
       </c>
-      <c r="AU32" s="2">
+      <c r="AU32" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5264,16 +5268,16 @@
       <c r="AQ33">
         <v>6393</v>
       </c>
-      <c r="AR33" s="2">
+      <c r="AR33" s="3">
         <v>44810</v>
       </c>
-      <c r="AS33" s="2">
+      <c r="AS33" s="3">
         <v>17570</v>
       </c>
-      <c r="AT33">
+      <c r="AT33" s="3">
         <v>9279</v>
       </c>
-      <c r="AU33" s="2">
+      <c r="AU33" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5407,16 +5411,16 @@
       <c r="AQ34">
         <v>7233</v>
       </c>
-      <c r="AR34" s="2">
+      <c r="AR34" s="3">
         <v>43120</v>
       </c>
-      <c r="AS34" s="2">
+      <c r="AS34" s="3">
         <v>15790</v>
       </c>
-      <c r="AT34">
+      <c r="AT34" s="3">
         <v>6799</v>
       </c>
-      <c r="AU34" s="2">
+      <c r="AU34" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5550,16 +5554,16 @@
       <c r="AQ35">
         <v>7847</v>
       </c>
-      <c r="AR35" s="2">
+      <c r="AR35" s="3">
         <v>41030</v>
       </c>
-      <c r="AS35" s="2">
+      <c r="AS35" s="3">
         <v>13880</v>
       </c>
-      <c r="AT35">
+      <c r="AT35" s="3">
         <v>4667</v>
       </c>
-      <c r="AU35" s="2">
+      <c r="AU35" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5693,16 +5697,16 @@
       <c r="AQ36">
         <v>8188</v>
       </c>
-      <c r="AR36" s="2">
+      <c r="AR36" s="3">
         <v>38550</v>
       </c>
-      <c r="AS36" s="2">
+      <c r="AS36" s="3">
         <v>11950</v>
       </c>
-      <c r="AT36">
+      <c r="AT36" s="3">
         <v>3004</v>
       </c>
-      <c r="AU36" s="2">
+      <c r="AU36" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5836,16 +5840,16 @@
       <c r="AQ37">
         <v>8267</v>
       </c>
-      <c r="AR37" s="2">
+      <c r="AR37" s="3">
         <v>35710</v>
       </c>
-      <c r="AS37" s="2">
+      <c r="AS37" s="3">
         <v>10090</v>
       </c>
-      <c r="AT37">
+      <c r="AT37" s="3">
         <v>1822</v>
       </c>
-      <c r="AU37" s="2">
+      <c r="AU37" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -5979,16 +5983,16 @@
       <c r="AQ38">
         <v>8137</v>
       </c>
-      <c r="AR38" s="2">
+      <c r="AR38" s="3">
         <v>32560</v>
       </c>
-      <c r="AS38">
+      <c r="AS38" s="3">
         <v>8368</v>
       </c>
-      <c r="AT38">
+      <c r="AT38" s="3">
         <v>1049</v>
       </c>
-      <c r="AU38" s="2">
+      <c r="AU38" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6122,16 +6126,16 @@
       <c r="AQ39">
         <v>7864</v>
       </c>
-      <c r="AR39" s="2">
+      <c r="AR39" s="3">
         <v>29210</v>
       </c>
-      <c r="AS39">
+      <c r="AS39" s="3">
         <v>6827</v>
       </c>
-      <c r="AT39">
+      <c r="AT39" s="3">
         <v>577.4</v>
       </c>
-      <c r="AU39" s="2">
+      <c r="AU39" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6265,16 +6269,16 @@
       <c r="AQ40">
         <v>7509</v>
       </c>
-      <c r="AR40" s="2">
+      <c r="AR40" s="3">
         <v>25800</v>
       </c>
-      <c r="AS40">
+      <c r="AS40" s="3">
         <v>5492</v>
       </c>
-      <c r="AT40">
+      <c r="AT40" s="3">
         <v>306.2</v>
       </c>
-      <c r="AU40" s="2">
+      <c r="AU40" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6408,16 +6412,16 @@
       <c r="AQ41">
         <v>7114</v>
       </c>
-      <c r="AR41" s="2">
+      <c r="AR41" s="3">
         <v>22450</v>
       </c>
-      <c r="AS41">
+      <c r="AS41" s="3">
         <v>4366</v>
       </c>
-      <c r="AT41">
+      <c r="AT41" s="3">
         <v>157.6</v>
       </c>
-      <c r="AU41" s="2">
+      <c r="AU41" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6551,16 +6555,16 @@
       <c r="AQ42">
         <v>6708</v>
       </c>
-      <c r="AR42" s="2">
+      <c r="AR42" s="3">
         <v>19270</v>
       </c>
-      <c r="AS42">
+      <c r="AS42" s="3">
         <v>3438</v>
       </c>
-      <c r="AT42">
+      <c r="AT42" s="3">
         <v>79.400000000000006</v>
       </c>
-      <c r="AU42" s="2">
+      <c r="AU42" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6694,16 +6698,16 @@
       <c r="AQ43">
         <v>6309</v>
       </c>
-      <c r="AR43" s="2">
+      <c r="AR43" s="3">
         <v>16370</v>
       </c>
-      <c r="AS43">
+      <c r="AS43" s="3">
         <v>2689</v>
       </c>
-      <c r="AT43">
+      <c r="AT43" s="3">
         <v>39.479999999999997</v>
       </c>
-      <c r="AU43" s="2">
+      <c r="AU43" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6837,16 +6841,16 @@
       <c r="AQ44">
         <v>5924</v>
       </c>
-      <c r="AR44" s="2">
+      <c r="AR44" s="3">
         <v>13780</v>
       </c>
-      <c r="AS44">
+      <c r="AS44" s="3">
         <v>2095</v>
       </c>
-      <c r="AT44">
+      <c r="AT44" s="3">
         <v>19.55</v>
       </c>
-      <c r="AU44" s="2">
+      <c r="AU44" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -6980,16 +6984,16 @@
       <c r="AQ45">
         <v>5559</v>
       </c>
-      <c r="AR45" s="2">
+      <c r="AR45" s="3">
         <v>11550</v>
       </c>
-      <c r="AS45">
+      <c r="AS45" s="3">
         <v>1631</v>
       </c>
-      <c r="AT45">
+      <c r="AT45" s="3">
         <v>9.73</v>
       </c>
-      <c r="AU45" s="2">
+      <c r="AU45" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7123,16 +7127,16 @@
       <c r="AQ46">
         <v>5214</v>
       </c>
-      <c r="AR46">
+      <c r="AR46" s="3">
         <v>9647</v>
       </c>
-      <c r="AS46">
+      <c r="AS46" s="3">
         <v>1272</v>
       </c>
-      <c r="AT46">
+      <c r="AT46" s="3">
         <v>4.9059999999999997</v>
       </c>
-      <c r="AU46" s="2">
+      <c r="AU46" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7266,16 +7270,16 @@
       <c r="AQ47">
         <v>4889</v>
       </c>
-      <c r="AR47">
+      <c r="AR47" s="3">
         <v>8059</v>
       </c>
-      <c r="AS47">
+      <c r="AS47" s="3">
         <v>996.3</v>
       </c>
-      <c r="AT47">
+      <c r="AT47" s="3">
         <v>2.5230000000000001</v>
       </c>
-      <c r="AU47" s="2">
+      <c r="AU47" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7409,16 +7413,16 @@
       <c r="AQ48">
         <v>4584</v>
       </c>
-      <c r="AR48">
+      <c r="AR48" s="3">
         <v>6746</v>
       </c>
-      <c r="AS48">
+      <c r="AS48" s="3">
         <v>785.3</v>
       </c>
-      <c r="AT48">
+      <c r="AT48" s="3">
         <v>1.331</v>
       </c>
-      <c r="AU48" s="2">
+      <c r="AU48" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7552,16 +7556,16 @@
       <c r="AQ49">
         <v>4298</v>
       </c>
-      <c r="AR49">
+      <c r="AR49" s="3">
         <v>5667</v>
       </c>
-      <c r="AS49">
+      <c r="AS49" s="3">
         <v>623.70000000000005</v>
       </c>
-      <c r="AT49">
+      <c r="AT49" s="3">
         <v>0.72230000000000005</v>
       </c>
-      <c r="AU49" s="2">
+      <c r="AU49" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7695,16 +7699,16 @@
       <c r="AQ50">
         <v>4030</v>
       </c>
-      <c r="AR50">
+      <c r="AR50" s="3">
         <v>4785</v>
       </c>
-      <c r="AS50">
+      <c r="AS50" s="3">
         <v>499.8</v>
       </c>
-      <c r="AT50">
+      <c r="AT50" s="3">
         <v>0.40429999999999999</v>
       </c>
-      <c r="AU50" s="2">
+      <c r="AU50" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7838,16 +7842,16 @@
       <c r="AQ51">
         <v>3778</v>
       </c>
-      <c r="AR51">
+      <c r="AR51" s="3">
         <v>4064</v>
       </c>
-      <c r="AS51">
+      <c r="AS51" s="3">
         <v>404.4</v>
       </c>
-      <c r="AT51">
+      <c r="AT51" s="3">
         <v>0.2336</v>
       </c>
-      <c r="AU51" s="2">
+      <c r="AU51" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -7981,16 +7985,16 @@
       <c r="AQ52">
         <v>3542</v>
       </c>
-      <c r="AR52">
+      <c r="AR52" s="3">
         <v>3475</v>
       </c>
-      <c r="AS52">
+      <c r="AS52" s="3">
         <v>330.4</v>
       </c>
-      <c r="AT52">
+      <c r="AT52" s="3">
         <v>0.13930000000000001</v>
       </c>
-      <c r="AU52" s="2">
+      <c r="AU52" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8124,16 +8128,16 @@
       <c r="AQ53">
         <v>3320</v>
       </c>
-      <c r="AR53">
+      <c r="AR53" s="3">
         <v>2991</v>
       </c>
-      <c r="AS53">
+      <c r="AS53" s="3">
         <v>272.8</v>
       </c>
-      <c r="AT53">
+      <c r="AT53" s="3">
         <v>8.5760000000000003E-2</v>
       </c>
-      <c r="AU53" s="2">
+      <c r="AU53" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8267,16 +8271,16 @@
       <c r="AQ54">
         <v>3113</v>
       </c>
-      <c r="AR54">
+      <c r="AR54" s="3">
         <v>2593</v>
       </c>
-      <c r="AS54">
+      <c r="AS54" s="3">
         <v>227.4</v>
       </c>
-      <c r="AT54">
+      <c r="AT54" s="3">
         <v>5.4399999999999997E-2</v>
       </c>
-      <c r="AU54" s="2">
+      <c r="AU54" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8410,16 +8414,16 @@
       <c r="AQ55">
         <v>2918</v>
       </c>
-      <c r="AR55">
+      <c r="AR55" s="3">
         <v>2264</v>
       </c>
-      <c r="AS55">
+      <c r="AS55" s="3">
         <v>191.5</v>
       </c>
-      <c r="AT55">
+      <c r="AT55" s="3">
         <v>3.5520000000000003E-2</v>
       </c>
-      <c r="AU55" s="2">
+      <c r="AU55" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8553,16 +8557,16 @@
       <c r="AQ56">
         <v>2736</v>
       </c>
-      <c r="AR56">
+      <c r="AR56" s="3">
         <v>1991</v>
       </c>
-      <c r="AS56">
+      <c r="AS56" s="3">
         <v>162.80000000000001</v>
       </c>
-      <c r="AT56">
+      <c r="AT56" s="3">
         <v>2.385E-2</v>
       </c>
-      <c r="AU56" s="2">
+      <c r="AU56" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8696,16 +8700,16 @@
       <c r="AQ57">
         <v>2565</v>
       </c>
-      <c r="AR57">
+      <c r="AR57" s="3">
         <v>1763</v>
       </c>
-      <c r="AS57">
+      <c r="AS57" s="3">
         <v>139.69999999999999</v>
       </c>
-      <c r="AT57">
+      <c r="AT57" s="3">
         <v>1.643E-2</v>
       </c>
-      <c r="AU57" s="2">
+      <c r="AU57" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8839,16 +8843,16 @@
       <c r="AQ58">
         <v>2405</v>
       </c>
-      <c r="AR58">
+      <c r="AR58" s="3">
         <v>1572</v>
       </c>
-      <c r="AS58">
+      <c r="AS58" s="3">
         <v>121</v>
       </c>
-      <c r="AT58">
+      <c r="AT58" s="3">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="AU58" s="2">
+      <c r="AU58" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -8982,16 +8986,16 @@
       <c r="AQ59">
         <v>2254</v>
       </c>
-      <c r="AR59">
+      <c r="AR59" s="3">
         <v>1410</v>
       </c>
-      <c r="AS59">
+      <c r="AS59" s="3">
         <v>105.6</v>
       </c>
-      <c r="AT59">
+      <c r="AT59" s="3">
         <v>8.3700000000000007E-3</v>
       </c>
-      <c r="AU59" s="2">
+      <c r="AU59" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9125,16 +9129,16 @@
       <c r="AQ60">
         <v>2114</v>
       </c>
-      <c r="AR60">
+      <c r="AR60" s="3">
         <v>1273</v>
       </c>
-      <c r="AS60">
+      <c r="AS60" s="3">
         <v>92.98</v>
       </c>
-      <c r="AT60">
+      <c r="AT60" s="3">
         <v>6.1799999999999997E-3</v>
       </c>
-      <c r="AU60" s="2">
+      <c r="AU60" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9268,16 +9272,16 @@
       <c r="AQ61">
         <v>1981</v>
       </c>
-      <c r="AR61">
+      <c r="AR61" s="3">
         <v>1156</v>
       </c>
-      <c r="AS61">
+      <c r="AS61" s="3">
         <v>82.47</v>
       </c>
-      <c r="AT61">
+      <c r="AT61" s="3">
         <v>4.6499999999999996E-3</v>
       </c>
-      <c r="AU61" s="2">
+      <c r="AU61" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9411,16 +9415,16 @@
       <c r="AQ62">
         <v>1858</v>
       </c>
-      <c r="AR62">
+      <c r="AR62" s="3">
         <v>1056</v>
       </c>
-      <c r="AS62">
+      <c r="AS62" s="3">
         <v>73.69</v>
       </c>
-      <c r="AT62">
+      <c r="AT62" s="3">
         <v>3.5699999999999998E-3</v>
       </c>
-      <c r="AU62" s="2">
+      <c r="AU62" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9554,16 +9558,16 @@
       <c r="AQ63">
         <v>1741</v>
       </c>
-      <c r="AR63">
+      <c r="AR63" s="3">
         <v>969.7</v>
       </c>
-      <c r="AS63">
+      <c r="AS63" s="3">
         <v>66.290000000000006</v>
       </c>
-      <c r="AT63">
+      <c r="AT63" s="3">
         <v>2.7799999999999999E-3</v>
       </c>
-      <c r="AU63" s="2">
+      <c r="AU63" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9697,16 +9701,16 @@
       <c r="AQ64">
         <v>1633</v>
       </c>
-      <c r="AR64">
+      <c r="AR64" s="3">
         <v>894.8</v>
       </c>
-      <c r="AS64">
+      <c r="AS64" s="3">
         <v>60.02</v>
       </c>
-      <c r="AT64">
+      <c r="AT64" s="3">
         <v>2.2100000000000002E-3</v>
       </c>
-      <c r="AU64" s="2">
+      <c r="AU64" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9840,16 +9844,16 @@
       <c r="AQ65">
         <v>1531</v>
       </c>
-      <c r="AR65">
+      <c r="AR65" s="3">
         <v>829.8</v>
       </c>
-      <c r="AS65">
+      <c r="AS65" s="3">
         <v>54.68</v>
       </c>
-      <c r="AT65">
+      <c r="AT65" s="3">
         <v>1.7799999999999999E-3</v>
       </c>
-      <c r="AU65" s="2">
+      <c r="AU65" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -9983,16 +9987,16 @@
       <c r="AQ66">
         <v>1435</v>
       </c>
-      <c r="AR66">
+      <c r="AR66" s="3">
         <v>772.9</v>
       </c>
-      <c r="AS66">
+      <c r="AS66" s="3">
         <v>50.09</v>
       </c>
-      <c r="AT66">
+      <c r="AT66" s="3">
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="AU66" s="2">
+      <c r="AU66" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10126,16 +10130,16 @@
       <c r="AQ67">
         <v>1345</v>
       </c>
-      <c r="AR67">
+      <c r="AR67" s="3">
         <v>723.1</v>
       </c>
-      <c r="AS67">
+      <c r="AS67" s="3">
         <v>46.14</v>
       </c>
-      <c r="AT67">
+      <c r="AT67" s="3">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AU67" s="2">
+      <c r="AU67" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10269,16 +10273,16 @@
       <c r="AQ68">
         <v>1261</v>
       </c>
-      <c r="AR68">
+      <c r="AR68" s="3">
         <v>679.1</v>
       </c>
-      <c r="AS68">
+      <c r="AS68" s="3">
         <v>42.72</v>
       </c>
-      <c r="AT68">
+      <c r="AT68" s="3">
         <v>1.01E-3</v>
       </c>
-      <c r="AU68" s="2">
+      <c r="AU68" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10412,16 +10416,16 @@
       <c r="AQ69">
         <v>1182</v>
       </c>
-      <c r="AR69">
+      <c r="AR69" s="3">
         <v>640.29999999999995</v>
       </c>
-      <c r="AS69">
+      <c r="AS69" s="3">
         <v>39.74</v>
       </c>
-      <c r="AT69">
+      <c r="AT69" s="3">
         <v>8.4999999999999995E-4</v>
       </c>
-      <c r="AU69" s="2">
+      <c r="AU69" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10555,16 +10559,16 @@
       <c r="AQ70">
         <v>1108</v>
       </c>
-      <c r="AR70">
+      <c r="AR70" s="3">
         <v>605.79999999999995</v>
       </c>
-      <c r="AS70">
+      <c r="AS70" s="3">
         <v>37.130000000000003</v>
       </c>
-      <c r="AT70">
+      <c r="AT70" s="3">
         <v>7.2999999999999996E-4</v>
       </c>
-      <c r="AU70" s="2">
+      <c r="AU70" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10698,16 +10702,16 @@
       <c r="AQ71">
         <v>1039</v>
       </c>
-      <c r="AR71">
+      <c r="AR71" s="3">
         <v>575.20000000000005</v>
       </c>
-      <c r="AS71">
+      <c r="AS71" s="3">
         <v>34.840000000000003</v>
       </c>
-      <c r="AT71">
+      <c r="AT71" s="3">
         <v>6.3000000000000003E-4</v>
       </c>
-      <c r="AU71" s="2">
+      <c r="AU71" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10841,16 +10845,16 @@
       <c r="AQ72">
         <v>974.2</v>
       </c>
-      <c r="AR72">
+      <c r="AR72" s="3">
         <v>547.79999999999995</v>
       </c>
-      <c r="AS72">
+      <c r="AS72" s="3">
         <v>32.82</v>
       </c>
-      <c r="AT72">
+      <c r="AT72" s="3">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="AU72" s="2">
+      <c r="AU72" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -10984,16 +10988,16 @@
       <c r="AQ73">
         <v>913.3</v>
       </c>
-      <c r="AR73">
+      <c r="AR73" s="3">
         <v>523.20000000000005</v>
       </c>
-      <c r="AS73">
+      <c r="AS73" s="3">
         <v>31.03</v>
       </c>
-      <c r="AT73">
+      <c r="AT73" s="3">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="AU73" s="2">
+      <c r="AU73" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11127,16 +11131,16 @@
       <c r="AQ74">
         <v>856.3</v>
       </c>
-      <c r="AR74">
+      <c r="AR74" s="3">
         <v>501.2</v>
       </c>
-      <c r="AS74">
+      <c r="AS74" s="3">
         <v>29.44</v>
       </c>
-      <c r="AT74">
+      <c r="AT74" s="3">
         <v>4.2999999999999999E-4</v>
       </c>
-      <c r="AU74" s="2">
+      <c r="AU74" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11270,16 +11274,16 @@
       <c r="AQ75">
         <v>802.7</v>
       </c>
-      <c r="AR75">
+      <c r="AR75" s="3">
         <v>481.4</v>
       </c>
-      <c r="AS75">
+      <c r="AS75" s="3">
         <v>28.02</v>
       </c>
-      <c r="AT75">
+      <c r="AT75" s="3">
         <v>3.8000000000000002E-4</v>
       </c>
-      <c r="AU75" s="2">
+      <c r="AU75" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11413,16 +11417,16 @@
       <c r="AQ76">
         <v>752.6</v>
       </c>
-      <c r="AR76">
+      <c r="AR76" s="3">
         <v>463.4</v>
       </c>
-      <c r="AS76">
+      <c r="AS76" s="3">
         <v>26.75</v>
       </c>
-      <c r="AT76">
+      <c r="AT76" s="3">
         <v>3.5E-4</v>
       </c>
-      <c r="AU76" s="2">
+      <c r="AU76" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11556,16 +11560,16 @@
       <c r="AQ77">
         <v>705.5</v>
       </c>
-      <c r="AR77">
+      <c r="AR77" s="3">
         <v>447.2</v>
       </c>
-      <c r="AS77">
+      <c r="AS77" s="3">
         <v>25.61</v>
       </c>
-      <c r="AT77">
+      <c r="AT77" s="3">
         <v>3.1E-4</v>
       </c>
-      <c r="AU77" s="2">
+      <c r="AU77" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11699,16 +11703,16 @@
       <c r="AQ78">
         <v>661.4</v>
       </c>
-      <c r="AR78">
+      <c r="AR78" s="3">
         <v>432.5</v>
       </c>
-      <c r="AS78">
+      <c r="AS78" s="3">
         <v>24.59</v>
       </c>
-      <c r="AT78">
+      <c r="AT78" s="3">
         <v>2.9E-4</v>
       </c>
-      <c r="AU78" s="2">
+      <c r="AU78" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11842,16 +11846,16 @@
       <c r="AQ79">
         <v>620.1</v>
       </c>
-      <c r="AR79">
+      <c r="AR79" s="3">
         <v>419.1</v>
       </c>
-      <c r="AS79">
+      <c r="AS79" s="3">
         <v>23.67</v>
       </c>
-      <c r="AT79">
+      <c r="AT79" s="3">
         <v>2.5999999999999998E-4</v>
       </c>
-      <c r="AU79" s="2">
+      <c r="AU79" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -11985,16 +11989,16 @@
       <c r="AQ80">
         <v>581.29999999999995</v>
       </c>
-      <c r="AR80">
+      <c r="AR80" s="3">
         <v>407</v>
       </c>
-      <c r="AS80">
+      <c r="AS80" s="3">
         <v>22.83</v>
       </c>
-      <c r="AT80">
+      <c r="AT80" s="3">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="AU80" s="2">
+      <c r="AU80" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12128,16 +12132,16 @@
       <c r="AQ81">
         <v>545</v>
       </c>
-      <c r="AR81">
+      <c r="AR81" s="3">
         <v>395.9</v>
       </c>
-      <c r="AS81">
+      <c r="AS81" s="3">
         <v>22.08</v>
       </c>
-      <c r="AT81">
+      <c r="AT81" s="3">
         <v>2.2000000000000001E-4</v>
       </c>
-      <c r="AU81" s="2">
+      <c r="AU81" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12271,16 +12275,16 @@
       <c r="AQ82">
         <v>510.9</v>
       </c>
-      <c r="AR82">
+      <c r="AR82" s="3">
         <v>385.7</v>
       </c>
-      <c r="AS82">
+      <c r="AS82" s="3">
         <v>21.39</v>
       </c>
-      <c r="AT82">
+      <c r="AT82" s="3">
         <v>2.1000000000000001E-4</v>
       </c>
-      <c r="AU82" s="2">
+      <c r="AU82" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12414,16 +12418,16 @@
       <c r="AQ83">
         <v>479</v>
       </c>
-      <c r="AR83">
+      <c r="AR83" s="3">
         <v>376.4</v>
       </c>
-      <c r="AS83">
+      <c r="AS83" s="3">
         <v>20.77</v>
       </c>
-      <c r="AT83">
+      <c r="AT83" s="3">
         <v>1.9000000000000001E-4</v>
       </c>
-      <c r="AU83" s="2">
+      <c r="AU83" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12557,16 +12561,16 @@
       <c r="AQ84">
         <v>449.1</v>
       </c>
-      <c r="AR84">
+      <c r="AR84" s="3">
         <v>367.9</v>
       </c>
-      <c r="AS84">
+      <c r="AS84" s="3">
         <v>20.2</v>
       </c>
-      <c r="AT84">
+      <c r="AT84" s="3">
         <v>1.8000000000000001E-4</v>
       </c>
-      <c r="AU84" s="2">
+      <c r="AU84" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12700,16 +12704,16 @@
       <c r="AQ85">
         <v>421</v>
       </c>
-      <c r="AR85">
+      <c r="AR85" s="3">
         <v>360.1</v>
       </c>
-      <c r="AS85">
+      <c r="AS85" s="3">
         <v>19.68</v>
       </c>
-      <c r="AT85">
+      <c r="AT85" s="3">
         <v>1.7000000000000001E-4</v>
       </c>
-      <c r="AU85" s="2">
+      <c r="AU85" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12843,16 +12847,16 @@
       <c r="AQ86">
         <v>394.7</v>
       </c>
-      <c r="AR86">
+      <c r="AR86" s="3">
         <v>352.9</v>
       </c>
-      <c r="AS86">
+      <c r="AS86" s="3">
         <v>19.2</v>
       </c>
-      <c r="AT86">
+      <c r="AT86" s="3">
         <v>1.6000000000000001E-4</v>
       </c>
-      <c r="AU86" s="2">
+      <c r="AU86" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -12986,16 +12990,16 @@
       <c r="AQ87">
         <v>370</v>
       </c>
-      <c r="AR87">
+      <c r="AR87" s="3">
         <v>346.3</v>
       </c>
-      <c r="AS87">
+      <c r="AS87" s="3">
         <v>18.760000000000002</v>
       </c>
-      <c r="AT87">
+      <c r="AT87" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="AU87" s="2">
+      <c r="AU87" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13129,16 +13133,16 @@
       <c r="AQ88">
         <v>346.9</v>
       </c>
-      <c r="AR88">
+      <c r="AR88" s="3">
         <v>340.2</v>
       </c>
-      <c r="AS88">
+      <c r="AS88" s="3">
         <v>18.36</v>
       </c>
-      <c r="AT88">
+      <c r="AT88" s="3">
         <v>1.4999999999999999E-4</v>
       </c>
-      <c r="AU88" s="2">
+      <c r="AU88" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13272,16 +13276,16 @@
       <c r="AQ89">
         <v>325.2</v>
       </c>
-      <c r="AR89">
+      <c r="AR89" s="3">
         <v>334.5</v>
       </c>
-      <c r="AS89">
+      <c r="AS89" s="3">
         <v>18</v>
       </c>
-      <c r="AT89">
+      <c r="AT89" s="3">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="AU89" s="2">
+      <c r="AU89" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13415,16 +13419,16 @@
       <c r="AQ90">
         <v>304.89999999999998</v>
       </c>
-      <c r="AR90">
+      <c r="AR90" s="3">
         <v>329.3</v>
       </c>
-      <c r="AS90">
+      <c r="AS90" s="3">
         <v>17.66</v>
       </c>
-      <c r="AT90">
+      <c r="AT90" s="3">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="AU90" s="2">
+      <c r="AU90" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13558,16 +13562,16 @@
       <c r="AQ91">
         <v>285.8</v>
       </c>
-      <c r="AR91">
+      <c r="AR91" s="3">
         <v>324.5</v>
       </c>
-      <c r="AS91">
+      <c r="AS91" s="3">
         <v>17.350000000000001</v>
       </c>
-      <c r="AT91">
+      <c r="AT91" s="3">
         <v>1.2999999999999999E-4</v>
       </c>
-      <c r="AU91" s="2">
+      <c r="AU91" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13701,16 +13705,16 @@
       <c r="AQ92">
         <v>268</v>
       </c>
-      <c r="AR92">
+      <c r="AR92" s="3">
         <v>320.10000000000002</v>
       </c>
-      <c r="AS92">
+      <c r="AS92" s="3">
         <v>17.059999999999999</v>
       </c>
-      <c r="AT92">
+      <c r="AT92" s="3">
         <v>1.2E-4</v>
       </c>
-      <c r="AU92" s="2">
+      <c r="AU92" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13844,16 +13848,16 @@
       <c r="AQ93">
         <v>251.2</v>
       </c>
-      <c r="AR93">
+      <c r="AR93" s="3">
         <v>315.89999999999998</v>
       </c>
-      <c r="AS93">
+      <c r="AS93" s="3">
         <v>16.79</v>
       </c>
-      <c r="AT93">
+      <c r="AT93" s="3">
         <v>1.2E-4</v>
       </c>
-      <c r="AU93" s="2">
+      <c r="AU93" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -13987,16 +13991,16 @@
       <c r="AQ94">
         <v>235.5</v>
       </c>
-      <c r="AR94">
+      <c r="AR94" s="3">
         <v>312.10000000000002</v>
       </c>
-      <c r="AS94">
+      <c r="AS94" s="3">
         <v>16.55</v>
       </c>
-      <c r="AT94">
+      <c r="AT94" s="3">
         <v>1.2E-4</v>
       </c>
-      <c r="AU94" s="2">
+      <c r="AU94" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14130,16 +14134,16 @@
       <c r="AQ95">
         <v>220.8</v>
       </c>
-      <c r="AR95">
+      <c r="AR95" s="3">
         <v>308.60000000000002</v>
       </c>
-      <c r="AS95">
+      <c r="AS95" s="3">
         <v>16.32</v>
       </c>
-      <c r="AT95">
+      <c r="AT95" s="3">
         <v>1.1E-4</v>
       </c>
-      <c r="AU95" s="2">
+      <c r="AU95" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14273,16 +14277,16 @@
       <c r="AQ96">
         <v>207</v>
       </c>
-      <c r="AR96">
+      <c r="AR96" s="3">
         <v>305.3</v>
       </c>
-      <c r="AS96">
+      <c r="AS96" s="3">
         <v>16.11</v>
       </c>
-      <c r="AT96">
+      <c r="AT96" s="3">
         <v>1.1E-4</v>
       </c>
-      <c r="AU96" s="2">
+      <c r="AU96" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14416,16 +14420,16 @@
       <c r="AQ97">
         <v>194.1</v>
       </c>
-      <c r="AR97">
+      <c r="AR97" s="3">
         <v>302.2</v>
       </c>
-      <c r="AS97">
+      <c r="AS97" s="3">
         <v>15.92</v>
       </c>
-      <c r="AT97">
+      <c r="AT97" s="3">
         <v>1.1E-4</v>
       </c>
-      <c r="AU97" s="2">
+      <c r="AU97" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14559,16 +14563,16 @@
       <c r="AQ98">
         <v>181.9</v>
       </c>
-      <c r="AR98">
+      <c r="AR98" s="3">
         <v>299.39999999999998</v>
       </c>
-      <c r="AS98">
+      <c r="AS98" s="3">
         <v>15.74</v>
       </c>
-      <c r="AT98">
+      <c r="AT98" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AU98" s="2">
+      <c r="AU98" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14702,16 +14706,16 @@
       <c r="AQ99">
         <v>170.6</v>
       </c>
-      <c r="AR99">
+      <c r="AR99" s="3">
         <v>296.7</v>
       </c>
-      <c r="AS99">
+      <c r="AS99" s="3">
         <v>15.57</v>
       </c>
-      <c r="AT99">
+      <c r="AT99" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AU99" s="2">
+      <c r="AU99" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14845,16 +14849,16 @@
       <c r="AQ100">
         <v>159.9</v>
       </c>
-      <c r="AR100">
+      <c r="AR100" s="3">
         <v>294.3</v>
       </c>
-      <c r="AS100">
+      <c r="AS100" s="3">
         <v>15.41</v>
       </c>
-      <c r="AT100">
+      <c r="AT100" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AU100" s="2">
+      <c r="AU100" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -14988,16 +14992,16 @@
       <c r="AQ101">
         <v>149.9</v>
       </c>
-      <c r="AR101">
+      <c r="AR101" s="3">
         <v>292</v>
       </c>
-      <c r="AS101">
+      <c r="AS101" s="3">
         <v>15.27</v>
       </c>
-      <c r="AT101">
+      <c r="AT101" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AU101" s="2">
+      <c r="AU101" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15131,16 +15135,16 @@
       <c r="AQ102">
         <v>140.5</v>
       </c>
-      <c r="AR102">
+      <c r="AR102" s="3">
         <v>289.8</v>
       </c>
-      <c r="AS102">
+      <c r="AS102" s="3">
         <v>15.13</v>
       </c>
-      <c r="AT102" s="1">
+      <c r="AT102" s="3">
         <v>1E-4</v>
       </c>
-      <c r="AU102" s="2">
+      <c r="AU102" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15274,16 +15278,16 @@
       <c r="AQ103">
         <v>131.80000000000001</v>
       </c>
-      <c r="AR103">
+      <c r="AR103" s="3">
         <v>287.8</v>
       </c>
-      <c r="AS103">
+      <c r="AS103" s="3">
         <v>15.01</v>
       </c>
-      <c r="AT103" s="1">
+      <c r="AT103" s="3">
         <v>9.7999999999999997E-5</v>
       </c>
-      <c r="AU103" s="2">
+      <c r="AU103" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15417,16 +15421,16 @@
       <c r="AQ104">
         <v>123.5</v>
       </c>
-      <c r="AR104">
+      <c r="AR104" s="3">
         <v>286</v>
       </c>
-      <c r="AS104">
+      <c r="AS104" s="3">
         <v>14.89</v>
       </c>
-      <c r="AT104" s="1">
+      <c r="AT104" s="3">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="AU104" s="2">
+      <c r="AU104" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15560,16 +15564,16 @@
       <c r="AQ105">
         <v>115.8</v>
       </c>
-      <c r="AR105">
+      <c r="AR105" s="3">
         <v>284.3</v>
       </c>
-      <c r="AS105">
+      <c r="AS105" s="3">
         <v>14.78</v>
       </c>
-      <c r="AT105" s="1">
+      <c r="AT105" s="3">
         <v>9.5000000000000005E-5</v>
       </c>
-      <c r="AU105" s="2">
+      <c r="AU105" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15703,16 +15707,16 @@
       <c r="AQ106">
         <v>108.6</v>
       </c>
-      <c r="AR106">
+      <c r="AR106" s="3">
         <v>282.60000000000002</v>
       </c>
-      <c r="AS106">
+      <c r="AS106" s="3">
         <v>14.68</v>
       </c>
-      <c r="AT106" s="1">
+      <c r="AT106" s="3">
         <v>9.2999999999999997E-5</v>
       </c>
-      <c r="AU106" s="2">
+      <c r="AU106" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15846,16 +15850,16 @@
       <c r="AQ107">
         <v>101.8</v>
       </c>
-      <c r="AR107">
+      <c r="AR107" s="3">
         <v>281.10000000000002</v>
       </c>
-      <c r="AS107">
+      <c r="AS107" s="3">
         <v>14.59</v>
       </c>
-      <c r="AT107" s="1">
+      <c r="AT107" s="3">
         <v>9.2E-5</v>
       </c>
-      <c r="AU107" s="2">
+      <c r="AU107" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -15989,16 +15993,16 @@
       <c r="AQ108">
         <v>95.42</v>
       </c>
-      <c r="AR108">
+      <c r="AR108" s="3">
         <v>279.7</v>
       </c>
-      <c r="AS108">
+      <c r="AS108" s="3">
         <v>14.5</v>
       </c>
-      <c r="AT108" s="1">
+      <c r="AT108" s="3">
         <v>9.1000000000000003E-5</v>
       </c>
-      <c r="AU108" s="2">
+      <c r="AU108" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16132,16 +16136,16 @@
       <c r="AQ109">
         <v>89.45</v>
       </c>
-      <c r="AR109">
+      <c r="AR109" s="3">
         <v>278.39999999999998</v>
       </c>
-      <c r="AS109">
+      <c r="AS109" s="3">
         <v>14.42</v>
       </c>
-      <c r="AT109" s="1">
+      <c r="AT109" s="3">
         <v>9.0000000000000006E-5</v>
       </c>
-      <c r="AU109" s="2">
+      <c r="AU109" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16275,16 +16279,16 @@
       <c r="AQ110">
         <v>83.86</v>
       </c>
-      <c r="AR110">
+      <c r="AR110" s="3">
         <v>277.2</v>
       </c>
-      <c r="AS110">
+      <c r="AS110" s="3">
         <v>14.34</v>
       </c>
-      <c r="AT110" s="1">
+      <c r="AT110" s="3">
         <v>8.8999999999999995E-5</v>
       </c>
-      <c r="AU110" s="2">
+      <c r="AU110" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16418,16 +16422,16 @@
       <c r="AQ111">
         <v>78.62</v>
       </c>
-      <c r="AR111">
+      <c r="AR111" s="3">
         <v>276</v>
       </c>
-      <c r="AS111">
+      <c r="AS111" s="3">
         <v>14.27</v>
       </c>
-      <c r="AT111" s="1">
+      <c r="AT111" s="3">
         <v>8.7999999999999998E-5</v>
       </c>
-      <c r="AU111" s="2">
+      <c r="AU111" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16561,16 +16565,16 @@
       <c r="AQ112">
         <v>73.709999999999994</v>
       </c>
-      <c r="AR112">
+      <c r="AR112" s="3">
         <v>274.89999999999998</v>
       </c>
-      <c r="AS112">
+      <c r="AS112" s="3">
         <v>14.2</v>
       </c>
-      <c r="AT112" s="1">
+      <c r="AT112" s="3">
         <v>8.7000000000000001E-5</v>
       </c>
-      <c r="AU112" s="2">
+      <c r="AU112" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16704,16 +16708,16 @@
       <c r="AQ113">
         <v>69.099999999999994</v>
       </c>
-      <c r="AR113">
+      <c r="AR113" s="3">
         <v>273.89999999999998</v>
       </c>
-      <c r="AS113">
+      <c r="AS113" s="3">
         <v>14.14</v>
       </c>
-      <c r="AT113" s="1">
+      <c r="AT113" s="3">
         <v>8.6000000000000003E-5</v>
       </c>
-      <c r="AU113" s="2">
+      <c r="AU113" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16847,16 +16851,16 @@
       <c r="AQ114">
         <v>64.78</v>
       </c>
-      <c r="AR114">
+      <c r="AR114" s="3">
         <v>273</v>
       </c>
-      <c r="AS114">
+      <c r="AS114" s="3">
         <v>14.08</v>
       </c>
-      <c r="AT114" s="1">
+      <c r="AT114" s="3">
         <v>8.5000000000000006E-5</v>
       </c>
-      <c r="AU114" s="2">
+      <c r="AU114" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -16990,16 +16994,16 @@
       <c r="AQ115">
         <v>60.73</v>
       </c>
-      <c r="AR115">
+      <c r="AR115" s="3">
         <v>272.10000000000002</v>
       </c>
-      <c r="AS115">
+      <c r="AS115" s="3">
         <v>14.03</v>
       </c>
-      <c r="AT115" s="1">
+      <c r="AT115" s="3">
         <v>8.3999999999999995E-5</v>
       </c>
-      <c r="AU115" s="2">
+      <c r="AU115" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17133,16 +17137,16 @@
       <c r="AQ116">
         <v>56.94</v>
       </c>
-      <c r="AR116">
+      <c r="AR116" s="3">
         <v>271.3</v>
       </c>
-      <c r="AS116">
+      <c r="AS116" s="3">
         <v>13.98</v>
       </c>
-      <c r="AT116" s="1">
+      <c r="AT116" s="3">
         <v>8.3999999999999995E-5</v>
       </c>
-      <c r="AU116" s="2">
+      <c r="AU116" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17276,16 +17280,16 @@
       <c r="AQ117">
         <v>53.38</v>
       </c>
-      <c r="AR117">
+      <c r="AR117" s="3">
         <v>270.5</v>
       </c>
-      <c r="AS117">
+      <c r="AS117" s="3">
         <v>13.93</v>
       </c>
-      <c r="AT117" s="1">
+      <c r="AT117" s="3">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AU117" s="2">
+      <c r="AU117" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17419,16 +17423,16 @@
       <c r="AQ118">
         <v>50.04</v>
       </c>
-      <c r="AR118">
+      <c r="AR118" s="3">
         <v>269.8</v>
       </c>
-      <c r="AS118">
+      <c r="AS118" s="3">
         <v>13.88</v>
       </c>
-      <c r="AT118" s="1">
+      <c r="AT118" s="3">
         <v>8.2999999999999998E-5</v>
       </c>
-      <c r="AU118" s="2">
+      <c r="AU118" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17562,16 +17566,16 @@
       <c r="AQ119">
         <v>46.92</v>
       </c>
-      <c r="AR119">
+      <c r="AR119" s="3">
         <v>269.10000000000002</v>
       </c>
-      <c r="AS119">
+      <c r="AS119" s="3">
         <v>13.84</v>
       </c>
-      <c r="AT119" s="1">
+      <c r="AT119" s="3">
         <v>8.2000000000000001E-5</v>
       </c>
-      <c r="AU119" s="2">
+      <c r="AU119" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17705,16 +17709,16 @@
       <c r="AQ120">
         <v>43.98</v>
       </c>
-      <c r="AR120">
+      <c r="AR120" s="3">
         <v>268.5</v>
       </c>
-      <c r="AS120">
+      <c r="AS120" s="3">
         <v>13.8</v>
       </c>
-      <c r="AT120" s="1">
+      <c r="AT120" s="3">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="AU120" s="2">
+      <c r="AU120" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17848,16 +17852,16 @@
       <c r="AQ121">
         <v>41.23</v>
       </c>
-      <c r="AR121">
+      <c r="AR121" s="3">
         <v>267.89999999999998</v>
       </c>
-      <c r="AS121">
+      <c r="AS121" s="3">
         <v>13.77</v>
       </c>
-      <c r="AT121" s="1">
+      <c r="AT121" s="3">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="AU121" s="2">
+      <c r="AU121" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -17991,16 +17995,16 @@
       <c r="AQ122">
         <v>38.659999999999997</v>
       </c>
-      <c r="AR122">
+      <c r="AR122" s="3">
         <v>267.3</v>
       </c>
-      <c r="AS122">
+      <c r="AS122" s="3">
         <v>13.73</v>
       </c>
-      <c r="AT122" s="1">
+      <c r="AT122" s="3">
         <v>8.1000000000000004E-5</v>
       </c>
-      <c r="AU122" s="2">
+      <c r="AU122" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18134,16 +18138,16 @@
       <c r="AQ123">
         <v>36.24</v>
       </c>
-      <c r="AR123">
+      <c r="AR123" s="3">
         <v>266.8</v>
       </c>
-      <c r="AS123">
+      <c r="AS123" s="3">
         <v>13.7</v>
       </c>
-      <c r="AT123" s="1">
+      <c r="AT123" s="3">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AU123" s="2">
+      <c r="AU123" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18277,16 +18281,16 @@
       <c r="AQ124">
         <v>33.979999999999997</v>
       </c>
-      <c r="AR124">
+      <c r="AR124" s="3">
         <v>266.3</v>
       </c>
-      <c r="AS124">
+      <c r="AS124" s="3">
         <v>13.67</v>
       </c>
-      <c r="AT124" s="1">
+      <c r="AT124" s="3">
         <v>8.0000000000000007E-5</v>
       </c>
-      <c r="AU124" s="2">
+      <c r="AU124" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18420,16 +18424,16 @@
       <c r="AQ125">
         <v>31.85</v>
       </c>
-      <c r="AR125">
+      <c r="AR125" s="3">
         <v>265.89999999999998</v>
       </c>
-      <c r="AS125">
+      <c r="AS125" s="3">
         <v>13.64</v>
       </c>
-      <c r="AT125" s="1">
+      <c r="AT125" s="3">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="AU125" s="2">
+      <c r="AU125" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18563,16 +18567,16 @@
       <c r="AQ126">
         <v>29.86</v>
       </c>
-      <c r="AR126">
+      <c r="AR126" s="3">
         <v>265.39999999999998</v>
       </c>
-      <c r="AS126">
+      <c r="AS126" s="3">
         <v>13.61</v>
       </c>
-      <c r="AT126" s="1">
+      <c r="AT126" s="3">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="AU126" s="2">
+      <c r="AU126" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18706,16 +18710,16 @@
       <c r="AQ127">
         <v>28</v>
       </c>
-      <c r="AR127">
+      <c r="AR127" s="3">
         <v>265</v>
       </c>
-      <c r="AS127">
+      <c r="AS127" s="3">
         <v>13.59</v>
       </c>
-      <c r="AT127" s="1">
+      <c r="AT127" s="3">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="AU127" s="2">
+      <c r="AU127" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18849,16 +18853,16 @@
       <c r="AQ128">
         <v>26.25</v>
       </c>
-      <c r="AR128">
+      <c r="AR128" s="3">
         <v>264.7</v>
       </c>
-      <c r="AS128">
+      <c r="AS128" s="3">
         <v>13.57</v>
       </c>
-      <c r="AT128" s="1">
+      <c r="AT128" s="3">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="AU128" s="2">
+      <c r="AU128" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -18992,16 +18996,16 @@
       <c r="AQ129">
         <v>24.61</v>
       </c>
-      <c r="AR129">
+      <c r="AR129" s="3">
         <v>264.3</v>
       </c>
-      <c r="AS129">
+      <c r="AS129" s="3">
         <v>13.55</v>
       </c>
-      <c r="AT129" s="1">
+      <c r="AT129" s="3">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="AU129" s="2">
+      <c r="AU129" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19135,16 +19139,16 @@
       <c r="AQ130">
         <v>23.07</v>
       </c>
-      <c r="AR130">
+      <c r="AR130" s="3">
         <v>264</v>
       </c>
-      <c r="AS130">
+      <c r="AS130" s="3">
         <v>13.52</v>
       </c>
-      <c r="AT130" s="1">
+      <c r="AT130" s="3">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="AU130" s="2">
+      <c r="AU130" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19278,16 +19282,16 @@
       <c r="AQ131">
         <v>21.63</v>
       </c>
-      <c r="AR131">
+      <c r="AR131" s="3">
         <v>263.7</v>
       </c>
-      <c r="AS131">
+      <c r="AS131" s="3">
         <v>13.51</v>
       </c>
-      <c r="AT131" s="1">
+      <c r="AT131" s="3">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="AU131" s="2">
+      <c r="AU131" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19421,16 +19425,16 @@
       <c r="AQ132">
         <v>20.27</v>
       </c>
-      <c r="AR132">
+      <c r="AR132" s="3">
         <v>263.39999999999998</v>
       </c>
-      <c r="AS132">
+      <c r="AS132" s="3">
         <v>13.49</v>
       </c>
-      <c r="AT132" s="1">
+      <c r="AT132" s="3">
         <v>7.7999999999999999E-5</v>
       </c>
-      <c r="AU132" s="2">
+      <c r="AU132" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19564,16 +19568,16 @@
       <c r="AQ133">
         <v>19.010000000000002</v>
       </c>
-      <c r="AR133">
+      <c r="AR133" s="3">
         <v>263.10000000000002</v>
       </c>
-      <c r="AS133">
+      <c r="AS133" s="3">
         <v>13.47</v>
       </c>
-      <c r="AT133" s="1">
+      <c r="AT133" s="3">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="AU133" s="2">
+      <c r="AU133" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19707,16 +19711,16 @@
       <c r="AQ134">
         <v>17.82</v>
       </c>
-      <c r="AR134">
+      <c r="AR134" s="3">
         <v>262.8</v>
       </c>
-      <c r="AS134">
+      <c r="AS134" s="3">
         <v>13.46</v>
       </c>
-      <c r="AT134" s="1">
+      <c r="AT134" s="3">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="AU134" s="2">
+      <c r="AU134" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19850,16 +19854,16 @@
       <c r="AQ135">
         <v>16.71</v>
       </c>
-      <c r="AR135">
+      <c r="AR135" s="3">
         <v>262.60000000000002</v>
       </c>
-      <c r="AS135">
+      <c r="AS135" s="3">
         <v>13.44</v>
       </c>
-      <c r="AT135" s="1">
+      <c r="AT135" s="3">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="AU135" s="2">
+      <c r="AU135" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -19993,16 +19997,16 @@
       <c r="AQ136">
         <v>15.66</v>
       </c>
-      <c r="AR136">
+      <c r="AR136" s="3">
         <v>262.39999999999998</v>
       </c>
-      <c r="AS136">
+      <c r="AS136" s="3">
         <v>13.43</v>
       </c>
-      <c r="AT136" s="1">
+      <c r="AT136" s="3">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="AU136" s="2">
+      <c r="AU136" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20136,16 +20140,16 @@
       <c r="AQ137">
         <v>14.68</v>
       </c>
-      <c r="AR137">
+      <c r="AR137" s="3">
         <v>262.2</v>
       </c>
-      <c r="AS137">
+      <c r="AS137" s="3">
         <v>13.41</v>
       </c>
-      <c r="AT137" s="1">
+      <c r="AT137" s="3">
         <v>7.7000000000000001E-5</v>
       </c>
-      <c r="AU137" s="2">
+      <c r="AU137" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20279,16 +20283,16 @@
       <c r="AQ138">
         <v>13.76</v>
       </c>
-      <c r="AR138">
+      <c r="AR138" s="3">
         <v>262</v>
       </c>
-      <c r="AS138">
+      <c r="AS138" s="3">
         <v>13.4</v>
       </c>
-      <c r="AT138" s="1">
+      <c r="AT138" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU138" s="2">
+      <c r="AU138" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20422,16 +20426,16 @@
       <c r="AQ139">
         <v>12.9</v>
       </c>
-      <c r="AR139">
+      <c r="AR139" s="3">
         <v>261.8</v>
       </c>
-      <c r="AS139">
+      <c r="AS139" s="3">
         <v>13.39</v>
       </c>
-      <c r="AT139" s="1">
+      <c r="AT139" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU139" s="2">
+      <c r="AU139" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20565,16 +20569,16 @@
       <c r="AQ140">
         <v>12.1</v>
       </c>
-      <c r="AR140">
+      <c r="AR140" s="3">
         <v>261.60000000000002</v>
       </c>
-      <c r="AS140">
+      <c r="AS140" s="3">
         <v>13.38</v>
       </c>
-      <c r="AT140" s="1">
+      <c r="AT140" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU140" s="2">
+      <c r="AU140" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20708,16 +20712,16 @@
       <c r="AQ141">
         <v>11.34</v>
       </c>
-      <c r="AR141">
+      <c r="AR141" s="3">
         <v>261.39999999999998</v>
       </c>
-      <c r="AS141">
+      <c r="AS141" s="3">
         <v>13.37</v>
       </c>
-      <c r="AT141" s="1">
+      <c r="AT141" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU141" s="2">
+      <c r="AU141" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20851,16 +20855,16 @@
       <c r="AQ142">
         <v>10.63</v>
       </c>
-      <c r="AR142">
+      <c r="AR142" s="3">
         <v>261.3</v>
       </c>
-      <c r="AS142">
+      <c r="AS142" s="3">
         <v>13.36</v>
       </c>
-      <c r="AT142" s="1">
+      <c r="AT142" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU142" s="2">
+      <c r="AU142" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -20994,16 +20998,16 @@
       <c r="AQ143">
         <v>9.968</v>
       </c>
-      <c r="AR143">
+      <c r="AR143" s="3">
         <v>261.10000000000002</v>
       </c>
-      <c r="AS143">
+      <c r="AS143" s="3">
         <v>13.35</v>
       </c>
-      <c r="AT143" s="1">
+      <c r="AT143" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU143" s="2">
+      <c r="AU143" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21137,16 +21141,16 @@
       <c r="AQ144">
         <v>9.3450000000000006</v>
       </c>
-      <c r="AR144">
+      <c r="AR144" s="3">
         <v>261</v>
       </c>
-      <c r="AS144">
+      <c r="AS144" s="3">
         <v>13.34</v>
       </c>
-      <c r="AT144" s="1">
+      <c r="AT144" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU144" s="2">
+      <c r="AU144" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21280,16 +21284,16 @@
       <c r="AQ145">
         <v>8.7609999999999992</v>
       </c>
-      <c r="AR145">
+      <c r="AR145" s="3">
         <v>260.89999999999998</v>
       </c>
-      <c r="AS145">
+      <c r="AS145" s="3">
         <v>13.34</v>
       </c>
-      <c r="AT145" s="1">
+      <c r="AT145" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU145" s="2">
+      <c r="AU145" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21423,16 +21427,16 @@
       <c r="AQ146">
         <v>8.2140000000000004</v>
       </c>
-      <c r="AR146">
+      <c r="AR146" s="3">
         <v>260.8</v>
       </c>
-      <c r="AS146">
+      <c r="AS146" s="3">
         <v>13.33</v>
       </c>
-      <c r="AT146" s="1">
+      <c r="AT146" s="3">
         <v>7.6000000000000004E-5</v>
       </c>
-      <c r="AU146" s="2">
+      <c r="AU146" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21566,16 +21570,16 @@
       <c r="AQ147">
         <v>7.7</v>
       </c>
-      <c r="AR147">
+      <c r="AR147" s="3">
         <v>260.7</v>
       </c>
-      <c r="AS147">
+      <c r="AS147" s="3">
         <v>13.32</v>
       </c>
-      <c r="AT147" s="1">
+      <c r="AT147" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU147" s="2">
+      <c r="AU147" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21709,16 +21713,16 @@
       <c r="AQ148">
         <v>7.2190000000000003</v>
       </c>
-      <c r="AR148">
+      <c r="AR148" s="3">
         <v>260.60000000000002</v>
       </c>
-      <c r="AS148">
+      <c r="AS148" s="3">
         <v>13.32</v>
       </c>
-      <c r="AT148" s="1">
+      <c r="AT148" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU148" s="2">
+      <c r="AU148" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21852,16 +21856,16 @@
       <c r="AQ149">
         <v>6.7679999999999998</v>
       </c>
-      <c r="AR149">
+      <c r="AR149" s="3">
         <v>260.5</v>
       </c>
-      <c r="AS149">
+      <c r="AS149" s="3">
         <v>13.31</v>
       </c>
-      <c r="AT149" s="1">
+      <c r="AT149" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU149" s="2">
+      <c r="AU149" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -21995,16 +21999,16 @@
       <c r="AQ150">
         <v>6.3449999999999998</v>
       </c>
-      <c r="AR150">
+      <c r="AR150" s="3">
         <v>260.39999999999998</v>
       </c>
-      <c r="AS150">
+      <c r="AS150" s="3">
         <v>13.3</v>
       </c>
-      <c r="AT150" s="1">
+      <c r="AT150" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU150" s="2">
+      <c r="AU150" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22138,16 +22142,16 @@
       <c r="AQ151">
         <v>5.9480000000000004</v>
       </c>
-      <c r="AR151">
+      <c r="AR151" s="3">
         <v>260.3</v>
       </c>
-      <c r="AS151">
+      <c r="AS151" s="3">
         <v>13.3</v>
       </c>
-      <c r="AT151" s="1">
+      <c r="AT151" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU151" s="2">
+      <c r="AU151" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22281,16 +22285,16 @@
       <c r="AQ152">
         <v>5.577</v>
       </c>
-      <c r="AR152">
+      <c r="AR152" s="3">
         <v>260.2</v>
       </c>
-      <c r="AS152">
+      <c r="AS152" s="3">
         <v>13.29</v>
       </c>
-      <c r="AT152" s="1">
+      <c r="AT152" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU152" s="2">
+      <c r="AU152" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22424,16 +22428,16 @@
       <c r="AQ153">
         <v>5.2279999999999998</v>
       </c>
-      <c r="AR153">
+      <c r="AR153" s="3">
         <v>260.10000000000002</v>
       </c>
-      <c r="AS153">
+      <c r="AS153" s="3">
         <v>13.29</v>
       </c>
-      <c r="AT153" s="1">
+      <c r="AT153" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU153" s="2">
+      <c r="AU153" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22567,16 +22571,16 @@
       <c r="AQ154">
         <v>4.9009999999999998</v>
       </c>
-      <c r="AR154">
+      <c r="AR154" s="3">
         <v>260</v>
       </c>
-      <c r="AS154">
+      <c r="AS154" s="3">
         <v>13.28</v>
       </c>
-      <c r="AT154" s="1">
+      <c r="AT154" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU154" s="2">
+      <c r="AU154" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22710,16 +22714,16 @@
       <c r="AQ155">
         <v>4.5949999999999998</v>
       </c>
-      <c r="AR155">
+      <c r="AR155" s="3">
         <v>260</v>
       </c>
-      <c r="AS155">
+      <c r="AS155" s="3">
         <v>13.28</v>
       </c>
-      <c r="AT155" s="1">
+      <c r="AT155" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU155" s="2">
+      <c r="AU155" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22853,16 +22857,16 @@
       <c r="AQ156">
         <v>4.3079999999999998</v>
       </c>
-      <c r="AR156">
+      <c r="AR156" s="3">
         <v>259.89999999999998</v>
       </c>
-      <c r="AS156">
+      <c r="AS156" s="3">
         <v>13.28</v>
       </c>
-      <c r="AT156" s="1">
+      <c r="AT156" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU156" s="2">
+      <c r="AU156" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -22996,16 +23000,16 @@
       <c r="AQ157">
         <v>4.0389999999999997</v>
       </c>
-      <c r="AR157">
+      <c r="AR157" s="3">
         <v>259.89999999999998</v>
       </c>
-      <c r="AS157">
+      <c r="AS157" s="3">
         <v>13.27</v>
       </c>
-      <c r="AT157" s="1">
+      <c r="AT157" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU157" s="2">
+      <c r="AU157" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -23139,16 +23143,16 @@
       <c r="AQ158">
         <v>3.786</v>
       </c>
-      <c r="AR158">
+      <c r="AR158" s="3">
         <v>259.8</v>
       </c>
-      <c r="AS158">
+      <c r="AS158" s="3">
         <v>13.27</v>
       </c>
-      <c r="AT158" s="1">
+      <c r="AT158" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU158" s="2">
+      <c r="AU158" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -23282,16 +23286,16 @@
       <c r="AQ159">
         <v>3.5489999999999999</v>
       </c>
-      <c r="AR159">
+      <c r="AR159" s="3">
         <v>259.7</v>
       </c>
-      <c r="AS159">
+      <c r="AS159" s="3">
         <v>13.27</v>
       </c>
-      <c r="AT159" s="1">
+      <c r="AT159" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU159" s="2">
+      <c r="AU159" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -23425,16 +23429,16 @@
       <c r="AQ160">
         <v>3.3279999999999998</v>
       </c>
-      <c r="AR160">
+      <c r="AR160" s="3">
         <v>259.7</v>
       </c>
-      <c r="AS160">
+      <c r="AS160" s="3">
         <v>13.26</v>
       </c>
-      <c r="AT160" s="1">
+      <c r="AT160" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU160" s="2">
+      <c r="AU160" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -23568,16 +23572,16 @@
       <c r="AQ161">
         <v>3.12</v>
       </c>
-      <c r="AR161">
+      <c r="AR161" s="3">
         <v>259.7</v>
       </c>
-      <c r="AS161">
+      <c r="AS161" s="3">
         <v>13.26</v>
       </c>
-      <c r="AT161" s="1">
+      <c r="AT161" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU161" s="2">
+      <c r="AU161" s="3">
         <v>100000</v>
       </c>
     </row>
@@ -23711,16 +23715,16 @@
       <c r="AQ162">
         <v>2.9249999999999998</v>
       </c>
-      <c r="AR162">
+      <c r="AR162" s="3">
         <v>259.60000000000002</v>
       </c>
-      <c r="AS162">
+      <c r="AS162" s="3">
         <v>13.26</v>
       </c>
-      <c r="AT162" s="1">
+      <c r="AT162" s="3">
         <v>7.4999999999999993E-5</v>
       </c>
-      <c r="AU162" s="2">
+      <c r="AU162" s="3">
         <v>100000</v>
       </c>
     </row>
